--- a/other/learned icd-9 list.xlsx
+++ b/other/learned icd-9 list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ICD-9</t>
   </si>
@@ -38,9 +38,6 @@
     <t>E8508</t>
   </si>
   <si>
-    <t>E9192</t>
-  </si>
-  <si>
     <t>4019</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>Accidental poisoning by other specified analgesics and antipyretics</t>
-  </si>
-  <si>
-    <t>Accidents caused by lifting machines and appliances</t>
   </si>
 </sst>
 </file>
@@ -120,11 +114,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ICD-9" dataDxfId="2"/>
-    <tableColumn id="2" name="Code Description" dataDxfId="1"/>
+    <tableColumn id="1" name="ICD-9" dataDxfId="1"/>
+    <tableColumn id="2" name="Code Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -393,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +409,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -423,10 +417,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -434,15 +428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/other/learned icd-9 list.xlsx
+++ b/other/learned icd-9 list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ICD-9</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Accidental poisoning by other specified analgesics and antipyretics</t>
+  </si>
+  <si>
+    <t>E9192</t>
+  </si>
+  <si>
+    <t>Accidents caused by lifting machines and appliances</t>
   </si>
 </sst>
 </file>
@@ -114,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ICD-9" dataDxfId="1"/>
     <tableColumn id="2" name="Code Description" dataDxfId="0"/>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +437,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/other/learned icd-9 list.xlsx
+++ b/other/learned icd-9 list.xlsx
@@ -35,9 +35,6 @@
     <t>Unspecified essential hypertension</t>
   </si>
   <si>
-    <t>E8508</t>
-  </si>
-  <si>
     <t>4019</t>
   </si>
   <si>
@@ -47,13 +44,16 @@
     <t>Acute kidney failure, unspecified</t>
   </si>
   <si>
-    <t>Accidental poisoning by other specified analgesics and antipyretics</t>
-  </si>
-  <si>
-    <t>E9192</t>
-  </si>
-  <si>
-    <t>Accidents caused by lifting machines and appliances</t>
+    <t>4280</t>
+  </si>
+  <si>
+    <t>Congestive heart failure, unspecified</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>Other and unspecified hyperlipidemia</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -423,15 +423,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>

--- a/other/learned icd-9 list.xlsx
+++ b/other/learned icd-9 list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ICD-9</t>
   </si>
@@ -54,6 +54,30 @@
   </si>
   <si>
     <t>Other and unspecified hyperlipidemia</t>
+  </si>
+  <si>
+    <t>41401</t>
+  </si>
+  <si>
+    <t>42731</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>51881</t>
+  </si>
+  <si>
+    <t>Coronary atherosclerosis of native coronary artery</t>
+  </si>
+  <si>
+    <t>Atrial fibrillation</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without mention of complication, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Acute respiratory failure</t>
   </si>
 </sst>
 </file>
@@ -120,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ICD-9" dataDxfId="1"/>
     <tableColumn id="2" name="Code Description" dataDxfId="0"/>
@@ -393,19 +417,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -421,15 +445,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -437,18 +461,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/other/learned icd-9 list.xlsx
+++ b/other/learned icd-9 list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ICD-9</t>
   </si>
@@ -38,46 +38,22 @@
     <t>4019</t>
   </si>
   <si>
-    <t>5849</t>
-  </si>
-  <si>
-    <t>Acute kidney failure, unspecified</t>
-  </si>
-  <si>
     <t>4280</t>
   </si>
   <si>
     <t>Congestive heart failure, unspecified</t>
   </si>
   <si>
-    <t>2724</t>
-  </si>
-  <si>
-    <t>Other and unspecified hyperlipidemia</t>
-  </si>
-  <si>
     <t>41401</t>
   </si>
   <si>
     <t>42731</t>
   </si>
   <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>51881</t>
-  </si>
-  <si>
     <t>Coronary atherosclerosis of native coronary artery</t>
   </si>
   <si>
     <t>Atrial fibrillation</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus without mention of complication, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Acute respiratory failure</t>
   </si>
 </sst>
 </file>
@@ -144,8 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ICD-9" dataDxfId="1"/>
     <tableColumn id="2" name="Code Description" dataDxfId="0"/>
@@ -417,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,58 +423,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
